--- a/data/selection-result-visualization.xlsx
+++ b/data/selection-result-visualization.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="497">
   <si>
     <t>http://dbpedia.org/ontology/actScore</t>
   </si>
@@ -1361,6 +1362,150 @@
   </si>
   <si>
     <t>http://dbpedia.org/ontology/youthWing</t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/editor </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/music_contributor </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/sequel </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/language </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/director </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/film_art_director </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/writer </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/film_subject </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/actor </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/producer </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/production_company </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/film_cut </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/genre </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/country </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/featured_film_location </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/prequel </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/filmid </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/performance </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/runtime </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/initial_release_date </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/cinematographer </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/story_contributor </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/film_story_contributor </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/personal_film_appearance </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/film_format </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/executive_producer </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/film_production_designer </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/relatedBook </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/film_casting_director </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/film_set_designer </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/film_regional_release_date </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/rating </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/location </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/dubbing_performance </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/film_featured_song </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/film_series </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/film_film_company_relationship </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/film_collection </t>
+  </si>
+  <si>
+    <t>http://data.linkedmdb.org/resource/movie/costume_designer </t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/page </t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/based_near </t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/property/hasPhotoCollection </t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#sameAs </t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#subject </t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2000/01/rdf-schema#label </t>
+  </si>
+  <si>
+    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#type </t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/title </t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/date </t>
   </si>
 </sst>
 </file>
@@ -1420,6 +1565,2747 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="485775"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="809625"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1295400"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1781175"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2105025"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2590800"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2914650"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3238500"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3562350"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3886200"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4371975"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4695825"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5019675"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5343525"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5514975"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6162675"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6810375"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7134225"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7620000"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7943850"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8429625"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8915400"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9563100"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9886950"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10210800"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10696575"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11182350"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11506200"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11830050"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12315825"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12639675"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12811125"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12982575"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13306425"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13630275"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="14116050"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="14763750"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15249525"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15573375"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15897225"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="16383000"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="16868775"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17192625"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17364075"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="图片 46" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17849850"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="图片 47" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18335625"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48" descr="[http]">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18507075"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1711,7 +4597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0"/>
+    <sheetView topLeftCell="A256" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3967,4 +6853,412 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="61.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1">
+        <v>7016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>459</v>
+      </c>
+      <c r="B15">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>461</v>
+      </c>
+      <c r="B17">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B18">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>493</v>
+      </c>
+      <c r="B19">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>489</v>
+      </c>
+      <c r="B20">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>463</v>
+      </c>
+      <c r="B21">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B22">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>465</v>
+      </c>
+      <c r="B23">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>494</v>
+      </c>
+      <c r="B24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>466</v>
+      </c>
+      <c r="B25">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>495</v>
+      </c>
+      <c r="B26">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>467</v>
+      </c>
+      <c r="B27">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>496</v>
+      </c>
+      <c r="B28">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>468</v>
+      </c>
+      <c r="B29">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>469</v>
+      </c>
+      <c r="B30">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>470</v>
+      </c>
+      <c r="B31">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>471</v>
+      </c>
+      <c r="B32">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>472</v>
+      </c>
+      <c r="B33">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>473</v>
+      </c>
+      <c r="B34">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>474</v>
+      </c>
+      <c r="B35">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>475</v>
+      </c>
+      <c r="B36">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>476</v>
+      </c>
+      <c r="B37">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>477</v>
+      </c>
+      <c r="B38">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>478</v>
+      </c>
+      <c r="B39">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>479</v>
+      </c>
+      <c r="B40">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>480</v>
+      </c>
+      <c r="B41">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>481</v>
+      </c>
+      <c r="B42">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>482</v>
+      </c>
+      <c r="B43">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>483</v>
+      </c>
+      <c r="B44">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>484</v>
+      </c>
+      <c r="B45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>485</v>
+      </c>
+      <c r="B46">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>486</v>
+      </c>
+      <c r="B47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>487</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B48">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>